--- a/data/trans_orig/Q5416-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q5416-Edad-trans_orig.xlsx
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6770</v>
+        <v>6462</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.006474519793227267</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02313750325347446</v>
+        <v>0.02208482747505567</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>4</v>
@@ -765,19 +765,19 @@
         <v>3727</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>902</v>
+        <v>1033</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>8531</v>
+        <v>8905</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01086760785316672</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.002631565412979528</v>
+        <v>0.003011249541425125</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02487614540543151</v>
+        <v>0.02596621059836864</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>6</v>
@@ -786,19 +786,19 @@
         <v>5621</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1936</v>
+        <v>1916</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>11513</v>
+        <v>12336</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.008845092505269212</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.003047053418037567</v>
+        <v>0.003014436102533582</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01811565217082711</v>
+        <v>0.01941079240937812</v>
       </c>
     </row>
     <row r="5">
@@ -818,16 +818,16 @@
         <v>798</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>7311</v>
+        <v>7245</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.009329137009977942</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.002728739999407303</v>
+        <v>0.00272875909377245</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.02498730586013711</v>
+        <v>0.02476233575197437</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>4</v>
@@ -839,16 +839,16 @@
         <v>907</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>8992</v>
+        <v>8330</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.01051846316993244</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.002646275946033137</v>
+        <v>0.002643468925869009</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.02622109488295655</v>
+        <v>0.02428943008603393</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>7</v>
@@ -857,19 +857,19 @@
         <v>6337</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2727</v>
+        <v>2580</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>12633</v>
+        <v>12331</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.009970914297853345</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.004291307662750093</v>
+        <v>0.004059880719617403</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.01987799553300045</v>
+        <v>0.01940345162198158</v>
       </c>
     </row>
     <row r="6">
@@ -902,16 +902,16 @@
         <v>928</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>8986</v>
+        <v>7991</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.009498960659292476</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.002704683846615305</v>
+        <v>0.002704604940523285</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.02620259832811323</v>
+        <v>0.02330212098200265</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>3</v>
@@ -920,19 +920,19 @@
         <v>3258</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>921</v>
+        <v>928</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>9718</v>
+        <v>8099</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.005125774085208997</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.001448893965909058</v>
+        <v>0.001460000148917273</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.01529091181293433</v>
+        <v>0.01274348395840069</v>
       </c>
     </row>
     <row r="7">
@@ -949,19 +949,19 @@
         <v>287959</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>282043</v>
+        <v>281696</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>290908</v>
+        <v>290811</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9841963431967948</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.963977243498554</v>
+        <v>0.9627901905888046</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.994273627983448</v>
+        <v>0.9939436288283042</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>360</v>
@@ -970,19 +970,19 @@
         <v>332342</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>324246</v>
+        <v>324513</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>337305</v>
+        <v>337273</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.9691149683176083</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.9455068206878829</v>
+        <v>0.9462828901198231</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9835853017999568</v>
+        <v>0.9834930637853018</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>658</v>
@@ -991,19 +991,19 @@
         <v>620302</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>611308</v>
+        <v>610837</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>626252</v>
+        <v>626886</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9760582191116685</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9619071792156094</v>
+        <v>0.9611653451345118</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9854208188848014</v>
+        <v>0.9864195122359342</v>
       </c>
     </row>
     <row r="8">
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>4935</v>
+        <v>4232</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.003957705250696678</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.02351343082291277</v>
+        <v>0.0201620815981453</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>6</v>
@@ -1116,19 +1116,19 @@
         <v>5788</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>2265</v>
+        <v>2301</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>13942</v>
+        <v>12893</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.01733380308837149</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.006783250614711783</v>
+        <v>0.006890431284995912</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.04175266065480679</v>
+        <v>0.03861148818135571</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>7</v>
@@ -1137,19 +1137,19 @@
         <v>6619</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>2259</v>
+        <v>2295</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>13114</v>
+        <v>13603</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.01217112912381178</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.004153254871558928</v>
+        <v>0.004221002326955862</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.02411554053620553</v>
+        <v>0.02501438759353133</v>
       </c>
     </row>
     <row r="10">
@@ -1166,19 +1166,19 @@
         <v>7591</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3680</v>
+        <v>3722</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>14028</v>
+        <v>14409</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03616568541607998</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01753337196600714</v>
+        <v>0.01773223607701181</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06683491230406331</v>
+        <v>0.06865421770197858</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>15</v>
@@ -1187,19 +1187,19 @@
         <v>17383</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>10242</v>
+        <v>10281</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>27396</v>
+        <v>28046</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05205777153052034</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03067220999691112</v>
+        <v>0.03078981667254159</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.08204549771494553</v>
+        <v>0.08399427639599187</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>23</v>
@@ -1208,19 +1208,19 @@
         <v>24973</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>15458</v>
+        <v>16001</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>35594</v>
+        <v>36777</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04592402010157413</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0284266927416593</v>
+        <v>0.02942470977717208</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06545587845975961</v>
+        <v>0.06763005453623901</v>
       </c>
     </row>
     <row r="11">
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>4439</v>
+        <v>5546</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.004135944052766673</v>
@@ -1249,7 +1249,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.02115138848609651</v>
+        <v>0.02642644076942386</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>3</v>
@@ -1258,19 +1258,19 @@
         <v>3453</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>1119</v>
+        <v>1127</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>9246</v>
+        <v>9302</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.01034075837496934</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.003350794027001487</v>
+        <v>0.003374389577699873</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.02769004695912938</v>
+        <v>0.02785694292062941</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>4</v>
@@ -1279,19 +1279,19 @@
         <v>4321</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1142</v>
+        <v>1154</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>10999</v>
+        <v>10933</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.00794593189082549</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.002100690191893251</v>
+        <v>0.002122900570506949</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.02022651915780075</v>
+        <v>0.02010508937588302</v>
       </c>
     </row>
     <row r="12">
@@ -1308,19 +1308,19 @@
         <v>200594</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>193198</v>
+        <v>192653</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>205097</v>
+        <v>205142</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.9557406652804566</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.9205055721265832</v>
+        <v>0.917907082184622</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9771962239742994</v>
+        <v>0.9774093784030329</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>266</v>
@@ -1329,19 +1329,19 @@
         <v>307285</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>295924</v>
+        <v>294594</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>317371</v>
+        <v>316387</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.9202676670061388</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.886242635344543</v>
+        <v>0.8822605868738626</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9504740724788635</v>
+        <v>0.9475288962109691</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>476</v>
@@ -1350,19 +1350,19 @@
         <v>507878</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>494008</v>
+        <v>494308</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>518553</v>
+        <v>518525</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.9339589188837886</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.9084515143525292</v>
+        <v>0.9090031118686001</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9535891355786039</v>
+        <v>0.9535379012343325</v>
       </c>
     </row>
     <row r="13">
@@ -1454,19 +1454,19 @@
         <v>2725</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>8305</v>
+        <v>7807</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.005423231450403397</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.001651773648251731</v>
+        <v>0.001653911351372261</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01652845331260172</v>
+        <v>0.01553805609177201</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>10</v>
@@ -1475,19 +1475,19 @@
         <v>9515</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>4425</v>
+        <v>4224</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>17438</v>
+        <v>16618</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01405759086535388</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.006538435118944621</v>
+        <v>0.006241288444503116</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.02576449668488715</v>
+        <v>0.02455176402357711</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>13</v>
@@ -1496,19 +1496,19 @@
         <v>12240</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6288</v>
+        <v>6664</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>20357</v>
+        <v>21256</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01037876220271654</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.005331819862923793</v>
+        <v>0.005650489406097543</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01726190794735137</v>
+        <v>0.01802383740244934</v>
       </c>
     </row>
     <row r="15">
@@ -1525,19 +1525,19 @@
         <v>10320</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>5411</v>
+        <v>5588</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>18233</v>
+        <v>17689</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.02053892224611863</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.01076830536089562</v>
+        <v>0.01112206764877104</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.0362878151618421</v>
+        <v>0.03520346977328175</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>19</v>
@@ -1546,19 +1546,19 @@
         <v>20990</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>13127</v>
+        <v>13389</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>32618</v>
+        <v>32500</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.03101114599009216</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.01939510101666653</v>
+        <v>0.01978140652046007</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.0481912750018444</v>
+        <v>0.04801679622474531</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>30</v>
@@ -1567,19 +1567,19 @@
         <v>31310</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>21348</v>
+        <v>21365</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>43485</v>
+        <v>43343</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.02654926120867181</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.01810250745891718</v>
+        <v>0.01811673116701698</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.03687360627190934</v>
+        <v>0.03675316146789372</v>
       </c>
     </row>
     <row r="16">
@@ -1599,7 +1599,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>5091</v>
+        <v>5206</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.001727608330200385</v>
@@ -1608,7 +1608,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01013154155697348</v>
+        <v>0.01036105827684657</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>6</v>
@@ -1617,19 +1617,19 @@
         <v>6710</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2307</v>
+        <v>2275</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>13384</v>
+        <v>13626</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.009914246668302398</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.003407992724502157</v>
+        <v>0.003361791174098084</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01977441123014037</v>
+        <v>0.02013212813409061</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>7</v>
@@ -1638,19 +1638,19 @@
         <v>7578</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3206</v>
+        <v>3336</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>15796</v>
+        <v>15425</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.006426177858390792</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.002718623066318874</v>
+        <v>0.002828585889706329</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01339416748707025</v>
+        <v>0.01308004344502954</v>
       </c>
     </row>
     <row r="17">
@@ -1667,19 +1667,19 @@
         <v>488553</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>480395</v>
+        <v>480006</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>494811</v>
+        <v>494104</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9723102379732775</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9560741785741805</v>
+        <v>0.9553000622351373</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9847643567990241</v>
+        <v>0.9833579623796945</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>626</v>
@@ -1688,19 +1688,19 @@
         <v>639627</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>625608</v>
+        <v>626168</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>650796</v>
+        <v>649874</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9450170164762516</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9243041228355874</v>
+        <v>0.9251315332595478</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9615186121712269</v>
+        <v>0.9601557178157208</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1134</v>
@@ -1709,19 +1709,19 @@
         <v>1128180</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1113069</v>
+        <v>1113102</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1141947</v>
+        <v>1140342</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9566457987302208</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9438320798155715</v>
+        <v>0.9438600219841264</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9683197848506928</v>
+        <v>0.9669585564178931</v>
       </c>
     </row>
     <row r="18">
@@ -2051,19 +2051,19 @@
         <v>4051</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1027</v>
+        <v>1010</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>10262</v>
+        <v>10424</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01307648221155155</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.00331557520422802</v>
+        <v>0.003260813103970124</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03312652607709544</v>
+        <v>0.03364929071661921</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -2072,19 +2072,19 @@
         <v>2940</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>7795</v>
+        <v>7951</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.008305507932208309</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.002649550735187224</v>
+        <v>0.002647104504064534</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02201934559622111</v>
+        <v>0.02246209485642268</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>7</v>
@@ -2093,19 +2093,19 @@
         <v>6991</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2907</v>
+        <v>3065</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>13144</v>
+        <v>14089</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01053211471266963</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.004379626964035963</v>
+        <v>0.004616998924994241</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01980173150129901</v>
+        <v>0.02122477115631974</v>
       </c>
     </row>
     <row r="5">
@@ -2125,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>7480</v>
+        <v>6398</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.006722501021178173</v>
@@ -2134,7 +2134,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.02414661442467915</v>
+        <v>0.02065247371957455</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>8</v>
@@ -2143,19 +2143,19 @@
         <v>7878</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>3797</v>
+        <v>3812</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>14583</v>
+        <v>14173</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.02225562872634361</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01072654350851581</v>
+        <v>0.01076988318448239</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.04119561076834567</v>
+        <v>0.04003705143432311</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>10</v>
@@ -2164,19 +2164,19 @@
         <v>9961</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>5022</v>
+        <v>5071</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>18829</v>
+        <v>18139</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01500634054220064</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.007565512027049873</v>
+        <v>0.007639436328853279</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.02836696463371095</v>
+        <v>0.02732738001583964</v>
       </c>
     </row>
     <row r="6">
@@ -2196,7 +2196,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>6028</v>
+        <v>5542</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.003552683854282946</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.01945737661629604</v>
+        <v>0.01789136213477043</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>0</v>
@@ -2230,7 +2230,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>6189</v>
+        <v>5472</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.00165803240504386</v>
@@ -2239,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.009324007324607777</v>
+        <v>0.008242953407425296</v>
       </c>
     </row>
     <row r="7">
@@ -2256,19 +2256,19 @@
         <v>302552</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>296030</v>
+        <v>295264</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>306739</v>
+        <v>306701</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9766483329129874</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9555944720319295</v>
+        <v>0.9531221144140033</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9901640687528185</v>
+        <v>0.9900424392918244</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>333</v>
@@ -2277,19 +2277,19 @@
         <v>343177</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>335362</v>
+        <v>335357</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>348488</v>
+        <v>348887</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.9694388633414481</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.947361599280431</v>
+        <v>0.9473472208400758</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9844394024994035</v>
+        <v>0.9855681125858804</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>608</v>
@@ -2298,19 +2298,19 @@
         <v>645729</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>635873</v>
+        <v>636036</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>653004</v>
+        <v>651961</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9728035123400859</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9579547373816449</v>
+        <v>0.958200062694363</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9837628658002943</v>
+        <v>0.9821920020339243</v>
       </c>
     </row>
     <row r="8">
@@ -2402,19 +2402,19 @@
         <v>5387</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>2081</v>
+        <v>2094</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>12933</v>
+        <v>10984</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.02156085912944435</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.008330460230209873</v>
+        <v>0.008382908605016779</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.05176209805463258</v>
+        <v>0.04396407169829906</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>21</v>
@@ -2423,19 +2423,19 @@
         <v>24209</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>14519</v>
+        <v>15461</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>36232</v>
+        <v>37175</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.06223807956539518</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.03732585506802878</v>
+        <v>0.03974806509367265</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.09314585660694517</v>
+        <v>0.09557127961837125</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>26</v>
@@ -2444,19 +2444,19 @@
         <v>29596</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>20591</v>
+        <v>19779</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>44334</v>
+        <v>43077</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.04632893220098833</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.03223240734011864</v>
+        <v>0.03096112039034934</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.06939938846982695</v>
+        <v>0.06743062351815182</v>
       </c>
     </row>
     <row r="10">
@@ -2473,19 +2473,19 @@
         <v>9672</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4457</v>
+        <v>4296</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>17953</v>
+        <v>18118</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03871030163089101</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01783892805058259</v>
+        <v>0.01719487147132898</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07185469366960902</v>
+        <v>0.07251551845009951</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>25</v>
@@ -2494,19 +2494,19 @@
         <v>27164</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>18288</v>
+        <v>18167</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>40226</v>
+        <v>37340</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.06983451529049711</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04701594736970029</v>
+        <v>0.04670525218423605</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1034142245387317</v>
+        <v>0.09599389077889602</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>34</v>
@@ -2515,19 +2515,19 @@
         <v>36836</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>26360</v>
+        <v>26533</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>50728</v>
+        <v>49789</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0576616161492782</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04126359052703334</v>
+        <v>0.04153436294458673</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07940730825563319</v>
+        <v>0.07793823374288379</v>
       </c>
     </row>
     <row r="11">
@@ -2547,7 +2547,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>13888</v>
+        <v>11617</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01302509459078055</v>
@@ -2556,7 +2556,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.05558393969192107</v>
+        <v>0.04649448369393269</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>4</v>
@@ -2565,19 +2565,19 @@
         <v>4434</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>1109</v>
+        <v>1111</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>11153</v>
+        <v>11270</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.0113989843363418</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.00285059632834084</v>
+        <v>0.002856288408589675</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.02867252743757626</v>
+        <v>0.02897315852310041</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>6</v>
@@ -2586,19 +2586,19 @@
         <v>7688</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>2304</v>
+        <v>3174</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>16957</v>
+        <v>17530</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.01203496750803794</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.003605952496925161</v>
+        <v>0.00496791008326926</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.02654328393732587</v>
+        <v>0.02744145827418977</v>
       </c>
     </row>
     <row r="12">
@@ -2615,19 +2615,19 @@
         <v>231538</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>219567</v>
+        <v>220058</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>238454</v>
+        <v>239058</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.9267037446488841</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8787931647206199</v>
+        <v>0.8807575083355786</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9543843355274237</v>
+        <v>0.9568030609998924</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>300</v>
@@ -2636,19 +2636,19 @@
         <v>333172</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>316295</v>
+        <v>316551</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>346475</v>
+        <v>345852</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.8565284208077659</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.8131403537241835</v>
+        <v>0.8137989866743446</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.8907301760682599</v>
+        <v>0.8891283960794202</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>506</v>
@@ -2657,19 +2657,19 @@
         <v>564709</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>543766</v>
+        <v>547271</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>579049</v>
+        <v>580927</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.8839744841416955</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.8511908059510845</v>
+        <v>0.8566771500974936</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9064216355150323</v>
+        <v>0.909361120229588</v>
       </c>
     </row>
     <row r="13">
@@ -2761,19 +2761,19 @@
         <v>9438</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>4164</v>
+        <v>4246</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>16958</v>
+        <v>16783</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01686434591151883</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.007440668696890777</v>
+        <v>0.007586826872500979</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.03030255896771269</v>
+        <v>0.0299885743079904</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>24</v>
@@ -2782,19 +2782,19 @@
         <v>27149</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>17659</v>
+        <v>17831</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>39318</v>
+        <v>39001</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.03654150202624327</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.02376802672008446</v>
+        <v>0.02399991546109171</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.05291918776905287</v>
+        <v>0.05249255970745519</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>33</v>
@@ -2803,19 +2803,19 @@
         <v>36587</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>25309</v>
+        <v>26025</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>49577</v>
+        <v>50740</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02808766846861817</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01942980709948958</v>
+        <v>0.019978977508999</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.0380595735124719</v>
+        <v>0.03895244681448091</v>
       </c>
     </row>
     <row r="15">
@@ -2832,19 +2832,19 @@
         <v>11754</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>6271</v>
+        <v>6177</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>20335</v>
+        <v>20907</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.021003505972266</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.011205574473993</v>
+        <v>0.0110377207871944</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.03633655674823139</v>
+        <v>0.03735811367514637</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>33</v>
@@ -2853,19 +2853,19 @@
         <v>35043</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>25061</v>
+        <v>25773</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>48400</v>
+        <v>49933</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.04716519857150796</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.03373088605228434</v>
+        <v>0.03468832410280975</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.06514355640099333</v>
+        <v>0.06720725094738483</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>44</v>
@@ -2874,19 +2874,19 @@
         <v>46797</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>33534</v>
+        <v>35247</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>62101</v>
+        <v>62008</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.03592543437335512</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.02574352825219412</v>
+        <v>0.02705894556804748</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.04767413287760065</v>
+        <v>0.04760296694404033</v>
       </c>
     </row>
     <row r="16">
@@ -2903,19 +2903,19 @@
         <v>4355</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>989</v>
+        <v>997</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>12864</v>
+        <v>12403</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.00778165683923973</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.001767437477742475</v>
+        <v>0.001780695665416695</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02298559051079924</v>
+        <v>0.02216225037875066</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>4</v>
@@ -2924,19 +2924,19 @@
         <v>4434</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1106</v>
+        <v>1112</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>11006</v>
+        <v>11144</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.005967852906922946</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.001488682764819322</v>
+        <v>0.001496055134276591</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01481373762935628</v>
+        <v>0.01499962157760356</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>7</v>
@@ -2945,19 +2945,19 @@
         <v>8789</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3357</v>
+        <v>3359</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>18711</v>
+        <v>18815</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.006747111680933376</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.00257721176015713</v>
+        <v>0.002579033499403482</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01436423551218693</v>
+        <v>0.01444423982099349</v>
       </c>
     </row>
     <row r="17">
@@ -2974,19 +2974,19 @@
         <v>534090</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>521929</v>
+        <v>521963</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>542617</v>
+        <v>543602</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9543504912769755</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9326208634615605</v>
+        <v>0.9326813853553052</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.969588069844619</v>
+        <v>0.9713475713270376</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>633</v>
@@ -2995,19 +2995,19 @@
         <v>676349</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>658227</v>
+        <v>658248</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>691853</v>
+        <v>691399</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9103254464953258</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8859340869815965</v>
+        <v>0.8859628423250071</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9311932409194732</v>
+        <v>0.9305823882340525</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1114</v>
@@ -3016,19 +3016,19 @@
         <v>1210439</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1189811</v>
+        <v>1191203</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1229332</v>
+        <v>1227944</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9292397854770933</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9134042295481093</v>
+        <v>0.9144728018248038</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9437441791893264</v>
+        <v>0.942678232061446</v>
       </c>
     </row>
     <row r="18">
@@ -3361,7 +3361,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5006</v>
+        <v>5848</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.002986971061604485</v>
@@ -3370,7 +3370,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01497447338367714</v>
+        <v>0.01749031668846414</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>5027</v>
+        <v>4991</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.001402394676340845</v>
@@ -3404,7 +3404,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.007059550019417751</v>
+        <v>0.00700837955727041</v>
       </c>
     </row>
     <row r="5">
@@ -3421,19 +3421,19 @@
         <v>3616</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>10791</v>
+        <v>10485</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01081566119283748</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.003048473276621062</v>
+        <v>0.00303616386880857</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.03227609318086225</v>
+        <v>0.031360947792047</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>9</v>
@@ -3442,19 +3442,19 @@
         <v>10587</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4871</v>
+        <v>4896</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>20230</v>
+        <v>19468</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.02802640215435626</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01289470515155116</v>
+        <v>0.01296122560161709</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.05355184488813562</v>
+        <v>0.05153561831409658</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>12</v>
@@ -3463,19 +3463,19 @@
         <v>14203</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>7584</v>
+        <v>7459</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>24557</v>
+        <v>25086</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01994589149572597</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01064985553686883</v>
+        <v>0.01047513356369557</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.03448634228971068</v>
+        <v>0.0352283223780484</v>
       </c>
     </row>
     <row r="6">
@@ -3495,7 +3495,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4825</v>
+        <v>4845</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.002868376501407477</v>
@@ -3504,7 +3504,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.01443208362126792</v>
+        <v>0.01449085233495049</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>0</v>
@@ -3529,7 +3529,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>4810</v>
+        <v>4832</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.001346714063294019</v>
@@ -3538,7 +3538,7 @@
         <v>0</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.006755214141755496</v>
+        <v>0.006785386250963508</v>
       </c>
     </row>
     <row r="7">
@@ -3555,19 +3555,19 @@
         <v>328756</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>321891</v>
+        <v>320907</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>332326</v>
+        <v>332330</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9833289912441505</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9627956195771132</v>
+        <v>0.9598517406159878</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9940070239099978</v>
+        <v>0.99401919430532</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>345</v>
@@ -3576,19 +3576,19 @@
         <v>367175</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>357532</v>
+        <v>358294</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>372891</v>
+        <v>372866</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.9719735978456437</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.9464481551118645</v>
+        <v>0.9484643816859036</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9871052948484489</v>
+        <v>0.9870387743983831</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>665</v>
@@ -3597,19 +3597,19 @@
         <v>695931</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>685978</v>
+        <v>685189</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>702967</v>
+        <v>702755</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9773049997646391</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9633274230164562</v>
+        <v>0.9622191249552493</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9871849987317776</v>
+        <v>0.9868881751304979</v>
       </c>
     </row>
     <row r="8">
@@ -3701,19 +3701,19 @@
         <v>4330</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1634</v>
+        <v>1695</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>9632</v>
+        <v>9466</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.01684939575937979</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.006359888018292554</v>
+        <v>0.00659447440168798</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.0374774360770463</v>
+        <v>0.03683279724599059</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>10</v>
@@ -3722,19 +3722,19 @@
         <v>13205</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>6883</v>
+        <v>6993</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>23335</v>
+        <v>23580</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.03299880510659135</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.01719968800486306</v>
+        <v>0.01747448328198141</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.05831396746576133</v>
+        <v>0.05892442322651848</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>15</v>
@@ -3743,19 +3743,19 @@
         <v>17535</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>9782</v>
+        <v>9907</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>28408</v>
+        <v>28148</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.02668326291186213</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.01488518130059755</v>
+        <v>0.01507460505143508</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.04322765399348878</v>
+        <v>0.04283212380321488</v>
       </c>
     </row>
     <row r="10">
@@ -3772,19 +3772,19 @@
         <v>13583</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>8214</v>
+        <v>7842</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>20746</v>
+        <v>21142</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05285251199359228</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03196059859264207</v>
+        <v>0.03051237261053597</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.08072579188246634</v>
+        <v>0.08226367314340209</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>26</v>
@@ -3793,19 +3793,19 @@
         <v>33490</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>22733</v>
+        <v>22062</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>46857</v>
+        <v>47016</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.08368965401387723</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05680893310955138</v>
+        <v>0.05513170036037702</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1170921306809651</v>
+        <v>0.1174897354894355</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>42</v>
@@ -3814,19 +3814,19 @@
         <v>47073</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>34567</v>
+        <v>33996</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>62272</v>
+        <v>62090</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.07163018685896272</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05259974751149495</v>
+        <v>0.0517311048433358</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.09475787190432533</v>
+        <v>0.09448059149811334</v>
       </c>
     </row>
     <row r="11">
@@ -3843,19 +3843,19 @@
         <v>2509</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>754</v>
+        <v>762</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>6315</v>
+        <v>6663</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.009762607098749222</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.002932690260210757</v>
+        <v>0.00296574196728248</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.02457228152556221</v>
+        <v>0.02592488495804667</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>2</v>
@@ -3867,7 +3867,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>9115</v>
+        <v>7412</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.005792886351910368</v>
@@ -3876,7 +3876,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.02277757918430841</v>
+        <v>0.01852259342940081</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>5</v>
@@ -3885,19 +3885,19 @@
         <v>4827</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1749</v>
+        <v>1911</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>10649</v>
+        <v>10338</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.007345323245355122</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.002661565485458288</v>
+        <v>0.002907540157213874</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01620493262390069</v>
+        <v>0.01573115853463896</v>
       </c>
     </row>
     <row r="12">
@@ -3914,19 +3914,19 @@
         <v>236576</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>228057</v>
+        <v>227962</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>243576</v>
+        <v>243237</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.9205354851482787</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8873868791522412</v>
+        <v>0.8870185171770779</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9477725486237768</v>
+        <v>0.946452955490382</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>263</v>
@@ -3935,19 +3935,19 @@
         <v>351156</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>333958</v>
+        <v>333810</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>362904</v>
+        <v>364774</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.877518654527621</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.8345424651676161</v>
+        <v>0.834171927502531</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9068767053102283</v>
+        <v>0.9115495282900921</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>541</v>
@@ -3956,19 +3956,19 @@
         <v>587732</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>569558</v>
+        <v>570613</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>602527</v>
+        <v>603564</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.89434122698382</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.866686115526239</v>
+        <v>0.8682928316442624</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9168552225606924</v>
+        <v>0.9184338319863172</v>
       </c>
     </row>
     <row r="13">
@@ -4060,19 +4060,19 @@
         <v>5329</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1886</v>
+        <v>2400</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>11093</v>
+        <v>12106</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.009011741481572967</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.003189849336388622</v>
+        <v>0.004058889634707674</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01875935019127651</v>
+        <v>0.02047327814285446</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>10</v>
@@ -4081,19 +4081,19 @@
         <v>13205</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>6494</v>
+        <v>6283</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>23217</v>
+        <v>23557</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01697464017700514</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.008347862868453846</v>
+        <v>0.008075929731731938</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.02984400047757547</v>
+        <v>0.03028199437835554</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>16</v>
@@ -4102,19 +4102,19 @@
         <v>18534</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>10379</v>
+        <v>10665</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>29989</v>
+        <v>28139</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01353578386668478</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.007580147705295194</v>
+        <v>0.007788916777413356</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.02190181781948972</v>
+        <v>0.02055039322728758</v>
       </c>
     </row>
     <row r="15">
@@ -4131,19 +4131,19 @@
         <v>17199</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>10855</v>
+        <v>10594</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>26672</v>
+        <v>26297</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.0290853636997633</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.01835663726456941</v>
+        <v>0.01791617241649703</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.04510468710169677</v>
+        <v>0.04447122612625189</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>35</v>
@@ -4152,19 +4152,19 @@
         <v>44077</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>31805</v>
+        <v>30123</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>59324</v>
+        <v>61120</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.05665967139987355</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.04088385760606095</v>
+        <v>0.03872254453872001</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.07625811623707869</v>
+        <v>0.07856729553998047</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>54</v>
@@ -4173,19 +4173,19 @@
         <v>61276</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>46968</v>
+        <v>47758</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>79620</v>
+        <v>80679</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.04475143475589435</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.03430181431000624</v>
+        <v>0.0348786200638341</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.05814816439135281</v>
+        <v>0.05892153208429553</v>
       </c>
     </row>
     <row r="16">
@@ -4202,19 +4202,19 @@
         <v>3468</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>896</v>
+        <v>887</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>8576</v>
+        <v>8659</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.005864689013602552</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.001514859012029556</v>
+        <v>0.00150034418766862</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01450352042141532</v>
+        <v>0.01464330031409564</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2</v>
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>8162</v>
+        <v>7309</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.002979870364770302</v>
@@ -4235,7 +4235,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01049159207108636</v>
+        <v>0.009395394916915552</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>6</v>
@@ -4244,19 +4244,19 @@
         <v>5786</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2075</v>
+        <v>2090</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>12768</v>
+        <v>12418</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.004225707740593935</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.00151535121786847</v>
+        <v>0.001526669421201685</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.00932507835109966</v>
+        <v>0.009069120688742603</v>
       </c>
     </row>
     <row r="17">
@@ -4273,19 +4273,19 @@
         <v>565332</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>555207</v>
+        <v>554171</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>573782</v>
+        <v>573445</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9560382058050612</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9389146156192755</v>
+        <v>0.9371639127324761</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9703284566741086</v>
+        <v>0.9697585723451344</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>608</v>
@@ -4294,19 +4294,19 @@
         <v>718330</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>701566</v>
+        <v>699178</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>732738</v>
+        <v>734111</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.923385818058351</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9018353908133331</v>
+        <v>0.8987665686659121</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9419066326210671</v>
+        <v>0.943670545725058</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1206</v>
@@ -4315,19 +4315,19 @@
         <v>1283663</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1265194</v>
+        <v>1263226</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1301353</v>
+        <v>1300276</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9374870736368269</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9239991784853455</v>
+        <v>0.9225615863682561</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9504065447511093</v>
+        <v>0.949620273458838</v>
       </c>
     </row>
     <row r="18">
@@ -4660,7 +4660,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>3395</v>
+        <v>3121</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.001498185223795919</v>
@@ -4669,7 +4669,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.008338954573659418</v>
+        <v>0.007667012130365052</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -4678,19 +4678,19 @@
         <v>1610</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>4182</v>
+        <v>4280</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.003669745511206231</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.001034457711387064</v>
+        <v>0.001037326540086153</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.009532689808255543</v>
+        <v>0.009756400263230857</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>4</v>
@@ -4699,19 +4699,19 @@
         <v>2220</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>601</v>
+        <v>546</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>5245</v>
+        <v>5180</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.002624600920331976</v>
+        <v>0.002624600920331977</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0007103061209629554</v>
+        <v>0.0006450779416930035</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.006201263317898597</v>
+        <v>0.006124359735612156</v>
       </c>
     </row>
     <row r="5">
@@ -4728,19 +4728,19 @@
         <v>3378</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1217</v>
+        <v>1255</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>8007</v>
+        <v>8159</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.008299135445475737</v>
+        <v>0.008299135445475739</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.002989105169284918</v>
+        <v>0.003082020473015564</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.01967057969439374</v>
+        <v>0.02004248955944601</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>19</v>
@@ -4749,19 +4749,19 @@
         <v>10672</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>6621</v>
+        <v>6726</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>16649</v>
+        <v>16289</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.02432414984264515</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01509032339884245</v>
+        <v>0.01533126234799975</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.03794883022039577</v>
+        <v>0.0371267551829265</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>24</v>
@@ -4770,19 +4770,19 @@
         <v>14050</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>9039</v>
+        <v>9133</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>20553</v>
+        <v>20844</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.01661151243028162</v>
+        <v>0.01661151243028163</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01068621376858073</v>
+        <v>0.01079747472806306</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.02429931359897115</v>
+        <v>0.02464374562802944</v>
       </c>
     </row>
     <row r="6">
@@ -4802,7 +4802,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4046</v>
+        <v>3785</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.001612338848637478</v>
@@ -4811,7 +4811,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.009938466750549825</v>
+        <v>0.009298329089205309</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>3</v>
@@ -4820,19 +4820,19 @@
         <v>1939</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>5645</v>
+        <v>5249</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.004420652956132217</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.001390240048208789</v>
+        <v>0.001384990476070772</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.01286682263326985</v>
+        <v>0.01196286409656939</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>4</v>
@@ -4841,19 +4841,19 @@
         <v>2596</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>6411</v>
+        <v>5942</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.003069046778794989</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.0007770545034185871</v>
+        <v>0.0007785156413595282</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.007579733705475318</v>
+        <v>0.00702470026785552</v>
       </c>
     </row>
     <row r="7">
@@ -4870,19 +4870,19 @@
         <v>402435</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>397424</v>
+        <v>397032</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>405156</v>
+        <v>405033</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9885903404820909</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9762787514935738</v>
+        <v>0.9753175906521234</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9952729304547352</v>
+        <v>0.9949720818825284</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>801</v>
@@ -4891,19 +4891,19 @@
         <v>424513</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>418113</v>
+        <v>417948</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>429106</v>
+        <v>429047</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.9675854516900163</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.952998109116411</v>
+        <v>0.9526220736949464</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9780555675353629</v>
+        <v>0.9779198187787197</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1364</v>
@@ -4912,19 +4912,19 @@
         <v>826948</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>819491</v>
+        <v>818820</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>832659</v>
+        <v>832370</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.9776948398705914</v>
+        <v>0.9776948398705915</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9688790176306844</v>
+        <v>0.9680855991982285</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9844471549953009</v>
+        <v>0.9841055809579741</v>
       </c>
     </row>
     <row r="8">
@@ -5016,19 +5016,19 @@
         <v>4682</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1949</v>
+        <v>2015</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>9692</v>
+        <v>9357</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.01513650585648521</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.006300608954629294</v>
+        <v>0.00651524066509688</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.03133395221084308</v>
+        <v>0.03025081573018731</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>27</v>
@@ -5037,19 +5037,19 @@
         <v>14687</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>9193</v>
+        <v>10088</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>21425</v>
+        <v>21447</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.03161237614083101</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.01978613826841457</v>
+        <v>0.02171203532141372</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.04611486807599863</v>
+        <v>0.04616230979543073</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>35</v>
@@ -5058,19 +5058,19 @@
         <v>19369</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>13416</v>
+        <v>13477</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>26146</v>
+        <v>27352</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.0250274920063648</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.01733472258530662</v>
+        <v>0.01741331917446107</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.03378440731198922</v>
+        <v>0.03534224619157356</v>
       </c>
     </row>
     <row r="10">
@@ -5087,19 +5087,19 @@
         <v>8726</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4561</v>
+        <v>4751</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>15001</v>
+        <v>15917</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02821098146006482</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01474606941415296</v>
+        <v>0.01535867923487755</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04849716328932243</v>
+        <v>0.0514577940492615</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>70</v>
@@ -5108,19 +5108,19 @@
         <v>38467</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>30229</v>
+        <v>29665</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>48480</v>
+        <v>48103</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.0827946465473743</v>
+        <v>0.08279464654737427</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06506238037633293</v>
+        <v>0.06384893776074965</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1043448778614118</v>
+        <v>0.1035344073990728</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>82</v>
@@ -5129,19 +5129,19 @@
         <v>47193</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>37530</v>
+        <v>38141</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>59344</v>
+        <v>59072</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.06097928237957409</v>
+        <v>0.0609792823795741</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04849319812401966</v>
+        <v>0.04928332892225696</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07667912808318339</v>
+        <v>0.07632886231286727</v>
       </c>
     </row>
     <row r="11">
@@ -5158,19 +5158,19 @@
         <v>2822</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>678</v>
+        <v>684</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>7019</v>
+        <v>7343</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.009123613417428171</v>
+        <v>0.009123613417428169</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.002191539304093339</v>
+        <v>0.002209758687540033</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.02269081490480855</v>
+        <v>0.02374039681881002</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>14</v>
@@ -5179,19 +5179,19 @@
         <v>8753</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>4691</v>
+        <v>4688</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>13895</v>
+        <v>14295</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.01883929555631452</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.0100970148135972</v>
+        <v>0.01008926404863143</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.02990669923164763</v>
+        <v>0.03076684202463734</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>18</v>
@@ -5200,19 +5200,19 @@
         <v>11575</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>7206</v>
+        <v>7345</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>18154</v>
+        <v>18780</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.01495624476338278</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.009311654527897867</v>
+        <v>0.009490336305138004</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.02345686808922766</v>
+        <v>0.0242661639548087</v>
       </c>
     </row>
     <row r="12">
@@ -5229,19 +5229,19 @@
         <v>293082</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>285907</v>
+        <v>284980</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>298793</v>
+        <v>298423</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.9475288992660219</v>
+        <v>0.9475288992660218</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.9243307896313052</v>
+        <v>0.9213354752915812</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9659914010340993</v>
+        <v>0.9647958583175381</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>770</v>
@@ -5250,19 +5250,19 @@
         <v>402702</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>390398</v>
+        <v>391229</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>413617</v>
+        <v>414207</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.8667536817554801</v>
+        <v>0.8667536817554802</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.8402722403953856</v>
+        <v>0.8420601702502363</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.8902470009493298</v>
+        <v>0.8915176542386868</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1203</v>
@@ -5271,19 +5271,19 @@
         <v>695783</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>681819</v>
+        <v>681651</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>708489</v>
+        <v>707891</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.8990369808506784</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.8809946824593541</v>
+        <v>0.8807773294142059</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9154547584610186</v>
+        <v>0.9146825625500622</v>
       </c>
     </row>
     <row r="13">
@@ -5375,19 +5375,19 @@
         <v>5292</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2324</v>
+        <v>2340</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>10022</v>
+        <v>10944</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.007386713557840392</v>
+        <v>0.00738671355784039</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.003244640157112949</v>
+        <v>0.003267014381431353</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01398950816305199</v>
+        <v>0.01527716936652424</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>30</v>
@@ -5396,19 +5396,19 @@
         <v>16297</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>10684</v>
+        <v>10793</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>22494</v>
+        <v>23612</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01804124192917782</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.0118267780722957</v>
+        <v>0.01194794379313272</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.02490096334223887</v>
+        <v>0.02613842175920388</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>39</v>
@@ -5417,19 +5417,19 @@
         <v>21589</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>15189</v>
+        <v>14857</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>29869</v>
+        <v>30375</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.01332885854169184</v>
+        <v>0.01332885854169185</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.00937733720013661</v>
+        <v>0.009172180756576432</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01844075629462606</v>
+        <v>0.01875306420463484</v>
       </c>
     </row>
     <row r="15">
@@ -5446,19 +5446,19 @@
         <v>12104</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>7202</v>
+        <v>7524</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>19695</v>
+        <v>19688</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.01689634272618754</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.01005339609590065</v>
+        <v>0.01050305722262292</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.027492602547431</v>
+        <v>0.02748266596701017</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>89</v>
@@ -5467,19 +5467,19 @@
         <v>49139</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>39879</v>
+        <v>38563</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>60470</v>
+        <v>60250</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>0.05439678491724472</v>
+        <v>0.05439678491724471</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.04414595124051066</v>
+        <v>0.04268878410624807</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.0669406911937048</v>
+        <v>0.0666968764292957</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>106</v>
@@ -5488,19 +5488,19 @@
         <v>61243</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>49329</v>
+        <v>49324</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>74558</v>
+        <v>73477</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.03781074237781945</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.03045511068628313</v>
+        <v>0.03045218494611144</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.04603087627686306</v>
+        <v>0.04536367998617864</v>
       </c>
     </row>
     <row r="16">
@@ -5517,19 +5517,19 @@
         <v>3478</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1254</v>
+        <v>1310</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>7946</v>
+        <v>8257</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.004855432651337588</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.001749927260717664</v>
+        <v>0.001828960446099082</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01109183634230637</v>
+        <v>0.01152561922607867</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>17</v>
@@ -5538,19 +5538,19 @@
         <v>10692</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>6457</v>
+        <v>6678</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>17038</v>
+        <v>17257</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01183647121702425</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.00714781556290018</v>
+        <v>0.007392675727726995</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01886069407738358</v>
+        <v>0.01910341148720314</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>22</v>
@@ -5559,19 +5559,19 @@
         <v>14171</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>9161</v>
+        <v>8738</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>21450</v>
+        <v>21331</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.008748832889189826</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.005655755731711795</v>
+        <v>0.005394454490628827</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01324270388333492</v>
+        <v>0.01316947340483684</v>
       </c>
     </row>
     <row r="17">
@@ -5588,19 +5588,19 @@
         <v>695516</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>686526</v>
+        <v>686197</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>701989</v>
+        <v>701777</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9708615110646345</v>
+        <v>0.9708615110646346</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9583112362038451</v>
+        <v>0.9578530840647871</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9798962032269497</v>
+        <v>0.9796002168748479</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1571</v>
@@ -5609,19 +5609,19 @@
         <v>827214</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>812348</v>
+        <v>813347</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>838935</v>
+        <v>838792</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9157255019365532</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8992681629145597</v>
+        <v>0.9003749381935713</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9287009339118339</v>
+        <v>0.9285421240634638</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2567</v>
@@ -5630,19 +5630,19 @@
         <v>1522732</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1507367</v>
+        <v>1507050</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1536402</v>
+        <v>1536712</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9401115661912988</v>
+        <v>0.9401115661912989</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.930625697449895</v>
+        <v>0.9304302178666016</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9485516511581474</v>
+        <v>0.9487425573154309</v>
       </c>
     </row>
     <row r="18">
